--- a/solutions/nvidia/ai/gpu-compute-cluster/presales/discovery-questionnaire.xlsx
+++ b/solutions/nvidia/ai/gpu-compute-cluster/presales/discovery-questionnaire.xlsx
@@ -786,7 +786,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>November 22, 2025</t>
+          <t>November 24, 2025</t>
         </is>
       </c>
     </row>
